--- a/Team-Plan-and-Work-Distribution.xlsx
+++ b/Team-Plan-and-Work-Distribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuy Quynh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\dhuyent\HK10\ParallelProgramming-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC69A7C9-237F-483E-B938-062A562EBAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A24DC4-C74A-4467-A288-FA1A9649E090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA72CB59-70A5-4085-90C8-46095F241610}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA72CB59-70A5-4085-90C8-46095F241610}"/>
   </bookViews>
   <sheets>
     <sheet name="Team plan and work distribution" sheetId="1" r:id="rId1"/>
@@ -208,10 +208,6 @@
 - Write report phase 3.</t>
   </si>
   <si>
-    <t>- Conclusion and Future Work.
-- Write README.m</t>
-  </si>
-  <si>
     <t>20/12/2025</t>
   </si>
   <si>
@@ -236,6 +232,10 @@
     <t>- Combine all modules, format file.
 - Video.
 - Slide.</t>
+  </si>
+  <si>
+    <t>- Conclusion and Future Work.
+- Write README.md</t>
   </si>
 </sst>
 </file>
@@ -462,33 +462,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -501,6 +474,24 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,21 +501,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -859,58 +859,58 @@
   <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="93.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" s="23" customFormat="1">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4" s="25" customFormat="1">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="11" customFormat="1" ht="17.5">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" s="24" customFormat="1">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="13" customFormat="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:4" s="27" customFormat="1">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="13" customFormat="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:4" s="27" customFormat="1">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:4" s="27" customFormat="1">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28" customHeight="1" thickBot="1">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:4" ht="27.95" customHeight="1" thickBot="1">
+      <c r="A7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" thickBot="1">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -920,148 +920,148 @@
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36.5" thickBot="1">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:4" ht="38.25" thickBot="1">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>33</v>
+      <c r="C9" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="36.5" thickBot="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="1:4" ht="38.25" thickBot="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36.5" thickBot="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="18" t="s">
-        <v>34</v>
+    <row r="11" spans="1:4" ht="57" thickBot="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36.5" thickBot="1">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:4" ht="38.25" thickBot="1">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36.5" thickBot="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20" t="s">
+    <row r="13" spans="1:4" ht="38.25" thickBot="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36.5" thickBot="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="20" t="s">
+    <row r="14" spans="1:4" ht="38.25" thickBot="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36.5" thickBot="1">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:4" ht="38.25" thickBot="1">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="36.5" thickBot="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="20" t="s">
+    <row r="16" spans="1:4" ht="38.25" thickBot="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36.5" thickBot="1">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:5" ht="38.25" thickBot="1">
+      <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="36.5" thickBot="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20" t="s">
-        <v>31</v>
+    <row r="18" spans="1:5" ht="38.25" thickBot="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="36.5" thickBot="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="21" t="s">
-        <v>29</v>
+    <row r="19" spans="1:5" ht="38.25" thickBot="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="54.5" thickBot="1">
+    <row r="20" spans="1:5" ht="57" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2326,12 +2326,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A1:XFD1"/>
@@ -2341,6 +2335,12 @@
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="A4:XFD4"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2348,20 +2348,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0829c274-c667-4086-9446-f54ca89a983e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0829c274-c667-4086-9446-f54ca89a983e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2561,14 +2561,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5BDA6E-F0FD-4D1B-A51B-E062A711482D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97329793-AF9C-47EB-B555-1C419DDC3F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2580,6 +2572,14 @@
     <ds:schemaRef ds:uri="0829c274-c667-4086-9446-f54ca89a983e"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5BDA6E-F0FD-4D1B-A51B-E062A711482D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
